--- a/Reqd_docu.xlsx
+++ b/Reqd_docu.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="27">
   <si>
     <t>Requirements</t>
   </si>
@@ -89,10 +89,25 @@
     <t>R4.1 The application shall allow user to register for the program.</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>R6 The application shall allow users to find people</t>
+    <t>R6 The application shall redirect users to find people page</t>
+  </si>
+  <si>
+    <t>R7 The application shall redirect users to news flash page</t>
+  </si>
+  <si>
+    <t>R8 The application shall redirect users to mymav webpage</t>
+  </si>
+  <si>
+    <t>R9 The application shall redirect users to uta homepage</t>
+  </si>
+  <si>
+    <t>R10 The application shall redirect users to alumini page</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>R 11 The appliication shall provide link to uta email</t>
   </si>
 </sst>
 </file>
@@ -407,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -571,10 +586,68 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B16" t="s">
-        <v>20</v>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
